--- a/archivos/menu.xlsx
+++ b/archivos/menu.xlsx
@@ -1,113 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.delacruz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F268F-AF43-4B2E-9384-FFE23A1A1193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B54BC-CAA5-4504-BFB4-1CCB28C8CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{147970FA-8C54-488B-BA26-441EC1D056A8}"/>
+    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Listado jugadores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado jugadores'!$A$1:$E$21</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>Nombre_Plantillo</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+  <si>
+    <t>Nombre Platillo</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
   <si>
     <t>Sede</t>
   </si>
   <si>
-    <t>DiaPublicar</t>
-  </si>
-  <si>
-    <t>Cienega</t>
-  </si>
-  <si>
-    <t>Milanesa de pollo estilo cienega</t>
-  </si>
-  <si>
-    <t>milanesa de pollo empanizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pizza hecha con vegetales </t>
-  </si>
-  <si>
-    <t>Pizza de vegetales estilo cienega</t>
-  </si>
-  <si>
-    <t>Hamburguesa de vegetales estilo cienega</t>
-  </si>
-  <si>
-    <t>Filete a la mexicana</t>
-  </si>
-  <si>
-    <t>hamburguesa sin queso</t>
-  </si>
-  <si>
-    <t>filete sin cebolla</t>
+    <t>Fecha de Alimento</t>
+  </si>
+  <si>
+    <t>Descripción 1</t>
+  </si>
+  <si>
+    <t>Descripción 2</t>
+  </si>
+  <si>
+    <t>Descripción 3</t>
+  </si>
+  <si>
+    <t>Descripción 4</t>
+  </si>
+  <si>
+    <t>Descripción 5</t>
+  </si>
+  <si>
+    <t>Descripción 6</t>
+  </si>
+  <si>
+    <t>Descripción 7</t>
+  </si>
+  <si>
+    <t>Descripción 8</t>
+  </si>
+  <si>
+    <t>Descripción 9</t>
+  </si>
+  <si>
+    <t>Descripción 10</t>
+  </si>
+  <si>
+    <t>T.OP</t>
+  </si>
+  <si>
+    <t>Prueba alimento 11</t>
+  </si>
+  <si>
+    <t>Prueba alimento 12</t>
+  </si>
+  <si>
+    <t>Prueba alimento 13</t>
+  </si>
+  <si>
+    <t>Prueba alimento 14</t>
+  </si>
+  <si>
+    <t>Prueba alimento 15</t>
+  </si>
+  <si>
+    <t>Prueba alimento 16</t>
+  </si>
+  <si>
+    <t>Prueba alimento 17</t>
+  </si>
+  <si>
+    <t>Prueba alimento 18</t>
+  </si>
+  <si>
+    <t>Prueba alimento 19</t>
+  </si>
+  <si>
+    <t>Prueba alimento 20</t>
+  </si>
+  <si>
+    <t>Prueba alimento 1</t>
+  </si>
+  <si>
+    <t>Prueba alimento 2</t>
+  </si>
+  <si>
+    <t>Prueba alimento 3</t>
+  </si>
+  <si>
+    <t>Prueba alimento 4</t>
+  </si>
+  <si>
+    <t>Prueba alimento 5</t>
+  </si>
+  <si>
+    <t>Prueba alimento 6</t>
+  </si>
+  <si>
+    <t>Prueba alimento 7</t>
+  </si>
+  <si>
+    <t>Prueba alimento 8</t>
+  </si>
+  <si>
+    <t>Prueba alimento 9</t>
+  </si>
+  <si>
+    <t>Prueba alimento 10</t>
+  </si>
+  <si>
+    <t>Cantidad Platillo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -117,16 +194,76 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -134,17 +271,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -167,39 +310,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -251,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -362,13 +505,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -377,6 +513,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -441,33 +584,56 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92954804-5077-49FA-BCDB-020861179F33}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -476,69 +642,357 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E2" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E3" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E5" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E6" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E7" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E10" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45300</v>
+      </c>
+      <c r="E11" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E12" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E13" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E14" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E15" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E16" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E17" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E18" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E19" s="8">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45002</v>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E20" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45301</v>
+      </c>
+      <c r="E21" s="8">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:E21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>